--- a/biology/Zoologie/Eremias_multiocellata/Eremias_multiocellata.xlsx
+++ b/biology/Zoologie/Eremias_multiocellata/Eremias_multiocellata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eremias multiocellata est une espèce de sauriens de la famille des Lacertidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eremias multiocellata est une espèce de sauriens de la famille des Lacertidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 dans le sud de la Mongolie ;
 en Chine au Xinjiang, au Qinghai, en Mongolie-Intérieure et au Liaoning.
 en Russie au Touva ;
@@ -547,9 +561,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (5 août 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (5 août 2013) :
 Eremias multiocellata bannikowi Szczerbak, 1973
 Eremias multiocellata kozlowi Bedriaga, 1907
 Eremias multiocellata multiocellata Günther, 1872
@@ -581,9 +597,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les sous-espèces Eremias multiocellata stummeri[3] et Eremias multiocellata szczerbaki[4] ont été élevées au rang d'espèce par Ananjeva, Orlov, Khalikov, Darevsky, Ryabov et Barabanov en 2006[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sous-espèces Eremias multiocellata stummeri et Eremias multiocellata szczerbaki ont été élevées au rang d'espèce par Ananjeva, Orlov, Khalikov, Darevsky, Ryabov et Barabanov en 2006.
 </t>
         </is>
       </c>
@@ -612,7 +630,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Bedriaga, 1907 "1905" : Verzeichnis der von der Central-Asiatischen Expedition unter Stabs-Kapitän W. Roborowski in den Jahren 1893-1895 gesammelten Reptilien. Annuaire Musée Zoologique de l'Académie Impériale des Sciences de St.-Pétersbourg, vol. 10, n. 3/4, p. 159-200
 Günther, 1872 : On some new species of reptiles and fishes collected by J. Brenchley, Esq. Annals and Magazine of Natural History, ser. 4, vol. 10, n. 60, p. 418–426 (texte intégral).
